--- a/config_10.26/act_ty_gifts_config.xlsx
+++ b/config_10.26/act_ty_gifts_config.xlsx
@@ -339,10 +339,6 @@
     <t>2、加成效果仅限购买礼包当日</t>
   </si>
   <si>
-    <t>act_008_hflb</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>act_009_zqlb</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -440,6 +436,10 @@
   </si>
   <si>
     <t>狂欢礼包</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_010_hflb</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -827,7 +827,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -938,10 +938,10 @@
         <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E4" s="5">
         <v>1635206400</v>
@@ -967,10 +967,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="E5" s="5">
         <v>1632182400</v>
@@ -1516,22 +1516,22 @@
         <v>40</v>
       </c>
       <c r="G10" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>115</v>
-      </c>
       <c r="J10" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="L10" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>83</v>
@@ -1560,22 +1560,22 @@
         <v>40</v>
       </c>
       <c r="G11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="I11" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>118</v>
-      </c>
       <c r="J11" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="L11" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="O11" s="4" t="s">
         <v>83</v>
@@ -1604,22 +1604,22 @@
         <v>40</v>
       </c>
       <c r="G12" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>120</v>
-      </c>
       <c r="J12" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="L12" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="O12" s="4" t="s">
         <v>83</v>
@@ -1648,22 +1648,22 @@
         <v>40</v>
       </c>
       <c r="G13" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="I13" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="J13" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="K13" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="L13" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="O13" s="4" t="s">
         <v>83</v>
@@ -1692,25 +1692,25 @@
         <v>40</v>
       </c>
       <c r="G14" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="I14" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="J14" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="O14" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>48</v>
@@ -1736,25 +1736,25 @@
         <v>40</v>
       </c>
       <c r="G15" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="I15" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>103</v>
-      </c>
       <c r="J15" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K15" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="L15" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="L15" s="5" t="s">
-        <v>109</v>
-      </c>
       <c r="O15" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>48</v>
@@ -1780,25 +1780,25 @@
         <v>40</v>
       </c>
       <c r="G16" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="I16" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>105</v>
-      </c>
       <c r="J16" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="K16" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="L16" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>48</v>
@@ -1824,25 +1824,25 @@
         <v>40</v>
       </c>
       <c r="G17" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="I17" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="J17" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="J17" s="5" t="s">
-        <v>107</v>
-      </c>
       <c r="K17" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="L17" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="L17" s="5" t="s">
-        <v>112</v>
-      </c>
       <c r="O17" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>48</v>
@@ -1894,7 +1894,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">

--- a/config_10.26/act_ty_gifts_config.xlsx
+++ b/config_10.26/act_ty_gifts_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
@@ -422,15 +422,6 @@
     <t>"4980万金币","1688","南瓜加成"</t>
   </si>
   <si>
-    <t>"hflb_btn_bx","com_award_icon_hfsp","ng_icon_1"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx2","com_award_icon_hfsp","ng_icon_1"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx3","com_award_icon_hfsp","ng_icon_1"</t>
-  </si>
-  <si>
     <t>1、购买礼包，活动中获得的南瓜在排行榜中有额外加成</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -439,8 +430,17 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>act_010_hflb</t>
+    <t>act_010_khlb</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"hflb_btn_bx","com_award_icon_hfsp","act_028_nangua_act_ty_by_drop_7"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx2","com_award_icon_hfsp","act_028_nangua_act_ty_by_drop_7"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx3","com_award_icon_hfsp","act_028_nangua_act_ty_by_drop_7"</t>
   </si>
 </sst>
 </file>
@@ -826,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -938,10 +938,10 @@
         <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E4" s="5">
         <v>1635206400</v>
@@ -1070,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView topLeftCell="I2" workbookViewId="0">
-      <selection activeCell="I33" sqref="I32:I33"/>
+    <sheetView tabSelected="1" topLeftCell="I2" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1085,8 +1085,8 @@
     <col min="7" max="7" width="41.625" style="5" customWidth="1"/>
     <col min="8" max="8" width="43.375" style="5" customWidth="1"/>
     <col min="9" max="9" width="48" style="5" customWidth="1"/>
-    <col min="10" max="10" width="68.125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="77.5" style="5" customWidth="1"/>
+    <col min="10" max="10" width="85.625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="82.5" style="5" customWidth="1"/>
     <col min="12" max="13" width="78.875" style="5" customWidth="1"/>
     <col min="14" max="14" width="96.375" style="5" customWidth="1"/>
     <col min="15" max="15" width="126.75" style="5" customWidth="1"/>
@@ -1525,13 +1525,13 @@
         <v>114</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>83</v>
@@ -1569,13 +1569,13 @@
         <v>117</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O11" s="4" t="s">
         <v>83</v>
@@ -1613,13 +1613,13 @@
         <v>119</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O12" s="4" t="s">
         <v>83</v>
@@ -1657,13 +1657,13 @@
         <v>120</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O13" s="4" t="s">
         <v>83</v>
@@ -1894,7 +1894,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">

--- a/config_10.26/act_ty_gifts_config.xlsx
+++ b/config_10.26/act_ty_gifts_config.xlsx
@@ -114,6 +114,9 @@
     <t>gift_hflb</t>
   </si>
   <si>
+    <t>话费礼包</t>
+  </si>
+  <si>
     <t>9,10,11,12</t>
   </si>
   <si>
@@ -306,18 +309,54 @@
     <t>10551,10552,10553</t>
   </si>
   <si>
+    <t>"60万金币","28","欢乐券加成"</t>
+  </si>
+  <si>
+    <t>"100万金币","48","欢乐券加成"</t>
+  </si>
+  <si>
+    <t>"180万金币","98","欢乐券加成"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx","com_award_icon_hfsp","hlq_icon_1"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx2","com_award_icon_hfsp","hlq_icon_1"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx3","com_award_icon_hfsp","hlq_icon_1"</t>
+  </si>
+  <si>
     <t>"任意购买1个礼包,欢乐券增加10%;\n任意购买2个礼包,欢乐券增加30%;\n任意购买3个礼包,欢乐券增加50%。"</t>
   </si>
   <si>
     <t>10554,10555,10556</t>
   </si>
   <si>
+    <t>"180万金币","58","欢乐券加成"</t>
+  </si>
+  <si>
+    <t>"300万金币","98","欢乐券加成"</t>
+  </si>
+  <si>
+    <t>"480万金币","168","欢乐券加成"</t>
+  </si>
+  <si>
     <t>10557,10558,10559</t>
   </si>
   <si>
+    <t>"980万金币","338","欢乐券加成"</t>
+  </si>
+  <si>
+    <t>"1980万金币","688","欢乐券加成"</t>
+  </si>
+  <si>
     <t>10560,10561,10562</t>
   </si>
   <si>
+    <t>"4980万金币","1688","欢乐券加成"</t>
+  </si>
+  <si>
     <t>10587,10588,10589</t>
   </si>
   <si>
@@ -339,90 +378,18 @@
     <t>2、加成效果仅限购买礼包当日</t>
   </si>
   <si>
-    <t>act_009_zqlb</t>
+    <t>act_008_hflb</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>中秋礼包</t>
+    <t>"任意购买1个礼包,月饼增加10%;\n任意购买2个礼包,月饼增加30%;\n任意购买3个礼包,月饼增加50%。"</t>
+  </si>
+  <si>
+    <t>1、购买礼包，活动中获得的欢乐券在排行榜中有额外加成</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"60万金币","6万","月饼加成"</t>
-  </si>
-  <si>
-    <t>"100万金币","12万","月饼加成"</t>
-  </si>
-  <si>
-    <t>"180万金币","18万","月饼加成"</t>
-  </si>
-  <si>
-    <t>"任意购买1个礼包,月饼增加10%;\n任意购买2个礼包,月饼增加30%;\n任意购买3个礼包,月饼增加50%。"</t>
-  </si>
-  <si>
-    <t>"180万金币","7万","月饼加成"</t>
-  </si>
-  <si>
-    <t>"300万金币","12万","月饼加成"</t>
-  </si>
-  <si>
-    <t>"480万金币","18万","月饼加成"</t>
-  </si>
-  <si>
-    <t>"980万金币","38万","月饼加成"</t>
-  </si>
-  <si>
-    <t>"1980万金币","80万","月饼加成"</t>
-  </si>
-  <si>
-    <t>"4980万金币","180万","月饼加成"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx","ty_icon_yb_3","zqlb_icon_ybjc"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx2","ty_icon_yb_3","zqlb_icon_ybjc"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx3","ty_icon_yb_3","zqlb_icon_ybjc"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx3","ty_icon_yb_4","zqlb_icon_ybjc"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx2","ty_icon_yb_4","zqlb_icon_ybjc"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx3","ty_icon_yb_5","zqlb_icon_ybjc"</t>
-  </si>
-  <si>
-    <t>"60万金币","28","南瓜加成"</t>
-  </si>
-  <si>
-    <t>"100万金币","48","南瓜加成"</t>
-  </si>
-  <si>
-    <t>"180万金币","98","南瓜加成"</t>
-  </si>
-  <si>
-    <t>"180万金币","58","南瓜加成"</t>
-  </si>
-  <si>
-    <t>"300万金币","98","南瓜加成"</t>
-  </si>
-  <si>
-    <t>"480万金币","168","南瓜加成"</t>
-  </si>
-  <si>
-    <t>"980万金币","338","南瓜加成"</t>
-  </si>
-  <si>
-    <t>"1980万金币","688","南瓜加成"</t>
-  </si>
-  <si>
-    <t>"4980万金币","1688","南瓜加成"</t>
-  </si>
-  <si>
-    <t>1、购买礼包，活动中获得的南瓜在排行榜中有额外加成</t>
+    <t>act_010_khlb</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -430,17 +397,49 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>act_010_khlb</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"hflb_btn_bx","com_award_icon_hfsp","act_028_nangua_act_ty_by_drop_7"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx2","com_award_icon_hfsp","act_028_nangua_act_ty_by_drop_7"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx3","com_award_icon_hfsp","act_028_nangua_act_ty_by_drop_7"</t>
+    <t>"60万金币","6万","南瓜加成"</t>
+  </si>
+  <si>
+    <t>"100万金币","12万","南瓜加成"</t>
+  </si>
+  <si>
+    <t>"180万金币","18万","南瓜加成"</t>
+  </si>
+  <si>
+    <t>"180万金币","7万","南瓜加成"</t>
+  </si>
+  <si>
+    <t>"300万金币","12万","南瓜加成"</t>
+  </si>
+  <si>
+    <t>"480万金币","18万","南瓜加成"</t>
+  </si>
+  <si>
+    <t>"980万金币","38万","南瓜加成"</t>
+  </si>
+  <si>
+    <t>"1980万金币","80万","南瓜加成"</t>
+  </si>
+  <si>
+    <t>"4980万金币","180万","南瓜加成"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx","ty_icon_yb_3","act_028_nangua_act_ty_by_drop_7"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx2","ty_icon_yb_3","act_028_nangua_act_ty_by_drop_7"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx3","ty_icon_yb_3","act_028_nangua_act_ty_by_drop_7"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx3","ty_icon_yb_4","act_028_nangua_act_ty_by_drop_7"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx2","ty_icon_yb_4","act_028_nangua_act_ty_by_drop_7"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx3","ty_icon_yb_5","act_028_nangua_act_ty_by_drop_7"</t>
   </si>
 </sst>
 </file>
@@ -827,7 +826,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -938,25 +937,25 @@
         <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="E4" s="5">
-        <v>1635206400</v>
+        <v>1634601600</v>
       </c>
       <c r="F4" s="5">
-        <v>1635782399</v>
+        <v>1635177599</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -964,28 +963,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E5" s="5">
-        <v>1632182400</v>
+        <v>1635206400</v>
       </c>
       <c r="F5" s="5">
-        <v>1632758399</v>
+        <v>1635782399</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1070,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I2" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1085,8 +1084,8 @@
     <col min="7" max="7" width="41.625" style="5" customWidth="1"/>
     <col min="8" max="8" width="43.375" style="5" customWidth="1"/>
     <col min="9" max="9" width="48" style="5" customWidth="1"/>
-    <col min="10" max="10" width="85.625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="82.5" style="5" customWidth="1"/>
+    <col min="10" max="10" width="68.125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="77.5" style="5" customWidth="1"/>
     <col min="12" max="13" width="78.875" style="5" customWidth="1"/>
     <col min="14" max="14" width="96.375" style="5" customWidth="1"/>
     <col min="15" max="15" width="126.75" style="5" customWidth="1"/>
@@ -1099,49 +1098,49 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1152,40 +1151,40 @@
         <v>9</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1196,40 +1195,40 @@
         <v>9</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1240,40 +1239,40 @@
         <v>9</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1284,40 +1283,40 @@
         <v>9</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="I5" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1328,40 +1327,40 @@
         <v>14</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1372,40 +1371,40 @@
         <v>14</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O7" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="P7" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1416,40 +1415,40 @@
         <v>14</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="H8" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1460,40 +1459,40 @@
         <v>14</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="I9" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1504,40 +1503,40 @@
         <v>18</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1548,40 +1547,40 @@
         <v>18</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1592,40 +1591,40 @@
         <v>18</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1636,40 +1635,40 @@
         <v>18</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1677,43 +1676,43 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>62</v>
+        <v>100</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="L14" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="O14" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="O14" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="P14" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1721,43 +1720,43 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>71</v>
+        <v>101</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="L15" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="O15" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="O15" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="P15" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1765,43 +1764,43 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>76</v>
+        <v>102</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -1809,43 +1808,43 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>80</v>
+        <v>103</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -1872,7 +1871,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1883,10 +1882,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">
@@ -1894,7 +1893,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">
@@ -1902,7 +1901,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
